--- a/profs/xlsx/Расписание Жарков Максим Витальевич.xlsx
+++ b/profs/xlsx/Расписание Жарков Максим Витальевич.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Жарков М.В.</t>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">Четверг</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд.314(3), Основы теории пилотажно-навигационных систем, ЛР, 3О-405С-15 (11.10-06.12) </t>
+  </si>
+  <si>
     <t xml:space="preserve">ауд.258(3), Основы теории пилотажно-навигационных систем, ЛР, 3О-403С-15 (01.11-27.12) </t>
   </si>
   <si>
@@ -101,7 +104,7 @@
     <t xml:space="preserve">Суббота</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.258(3), Основы теории пилотажно-навигационных систем, ЛР, 3О-401С-15, 3О-405С-15 (08.09-03.11) </t>
+    <t xml:space="preserve">ауд.258(3), Основы теории пилотажно-навигационных систем, ЛР, 3О-401С-15 (08.09-03.11) </t>
   </si>
   <si>
     <t xml:space="preserve">Воскресенье</t>
@@ -445,8 +448,12 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -454,13 +461,13 @@
     <row r="12" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -469,14 +476,14 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -488,7 +495,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -497,7 +504,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -512,10 +519,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -523,7 +530,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -550,13 +557,13 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
@@ -581,7 +588,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>

--- a/profs/xlsx/Расписание Жарков Максим Витальевич.xlsx
+++ b/profs/xlsx/Расписание Жарков Максим Витальевич.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -319,8 +319,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
